--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5A915-B4B2-45B8-85F2-FCAB6E3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB0744-D758-4EBD-8119-F2966AC41C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,10 @@
   </si>
   <si>
     <t>回避值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>得到所有手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +160,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC99FF"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -202,7 +206,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
       <border>
@@ -503,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,17 +561,22 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B114514">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65BB0744-D758-4EBD-8119-F2966AC41C4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5A915-B4B2-45B8-85F2-FCAB6E3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,10 +72,6 @@
   </si>
   <si>
     <t>回避值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>得到所有手</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -160,7 +156,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
       <border>
@@ -206,7 +202,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC99FF"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -507,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -561,22 +557,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B114514">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+      <formula>0</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\31613\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E5A915-B4B2-45B8-85F2-FCAB6E3DC05E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4709098-F550-4303-A76E-EE9673C8E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -72,6 +72,81 @@
   </si>
   <si>
     <t>回避值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qual</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Comp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Active</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Passive</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>San</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Atk</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Def</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agi</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>忍者的手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UpperLimb</t>
+  </si>
+  <si>
+    <t>握握手握握双手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>往事如烟手</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franken.ActorBodyPart.Quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Franken.ActorBodyPart.Component</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +231,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFCC99FF"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
         </patternFill>
       </fill>
       <border>
@@ -202,7 +277,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+          <bgColor rgb="FFCC99FF"/>
         </patternFill>
       </fill>
       <border>
@@ -503,10 +578,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -557,24 +632,138 @@
         <v>11</v>
       </c>
     </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>9</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>9</v>
+      </c>
+      <c r="J4" s="1">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="B2:B114514">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
-      <formula>0</formula>
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="5" operator="equal">
+      <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{FAFAB725-8D74-4D5C-835B-8E524F24AB63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{FAFAB725-8D74-4D5C-835B-8E524F24AB63}">
       <formula1>"Head,Heart,Torso,UpperLimb,LowerLimb"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576" xr:uid="{2CFF7141-C40B-4C10-8EC4-E1765B61B75F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B1048576" xr:uid="{2CFF7141-C40B-4C10-8EC4-E1765B61B75F}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4709098-F550-4303-A76E-EE9673C8E842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F4E4A-0042-49D7-A8EF-AA85B50F9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -147,6 +147,26 @@
   </si>
   <si>
     <t>Franken.ActorBodyPart.Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|9</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|0.81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|1.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|0.514</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -313,6 +333,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -581,7 +605,7 @@
   <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -724,26 +748,26 @@
       <c r="E4" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>9</v>
-      </c>
-      <c r="H4" s="1">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>9</v>
-      </c>
-      <c r="J4" s="1">
-        <v>8</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
+      <c r="F4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6F4E4A-0042-49D7-A8EF-AA85B50F9CAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85885CBE-D626-4BEC-ACC3-071C752478D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -167,6 +167,70 @@
   </si>
   <si>
     <t>2|0.514</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>Heart</t>
+  </si>
+  <si>
+    <t>Torso</t>
+  </si>
+  <si>
+    <t>LowerLimb</t>
+  </si>
+  <si>
+    <t>2|0.82</t>
+  </si>
+  <si>
+    <t>2|1.15</t>
+  </si>
+  <si>
+    <t>2|0.515</t>
+  </si>
+  <si>
+    <t>2|0.83</t>
+  </si>
+  <si>
+    <t>2|1.16</t>
+  </si>
+  <si>
+    <t>2|0.516</t>
+  </si>
+  <si>
+    <t>2|0.84</t>
+  </si>
+  <si>
+    <t>2|1.17</t>
+  </si>
+  <si>
+    <t>2|0.517</t>
+  </si>
+  <si>
+    <t>2|0.85</t>
+  </si>
+  <si>
+    <t>2|1.18</t>
+  </si>
+  <si>
+    <t>2|0.518</t>
+  </si>
+  <si>
+    <t>头</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>心</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>下肢</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -333,10 +397,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -602,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -768,6 +828,134 @@
       </c>
       <c r="L4" s="1" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" t="s">
+        <v>41</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0</v>
+      </c>
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K7" t="s">
+        <v>47</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85885CBE-D626-4BEC-ACC3-071C752478D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A464715-2E25-4922-9C5E-CD71E1E83777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,26 +55,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>魔法值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>行动点</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>攻击力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>回避值</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>string</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -115,10 +103,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Atk</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Def</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -134,22 +118,6 @@
     <t>UpperLimb</t>
   </si>
   <si>
-    <t>握握手握握双手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>往事如烟手</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franken.ActorBodyPart.Quality</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Franken.ActorBodyPart.Component</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1|1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,10 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2|0.81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2|1.14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -182,36 +146,24 @@
     <t>LowerLimb</t>
   </si>
   <si>
-    <t>2|0.82</t>
-  </si>
-  <si>
     <t>2|1.15</t>
   </si>
   <si>
     <t>2|0.515</t>
   </si>
   <si>
-    <t>2|0.83</t>
-  </si>
-  <si>
     <t>2|1.16</t>
   </si>
   <si>
     <t>2|0.516</t>
   </si>
   <si>
-    <t>2|0.84</t>
-  </si>
-  <si>
     <t>2|1.17</t>
   </si>
   <si>
     <t>2|0.517</t>
   </si>
   <si>
-    <t>2|0.85</t>
-  </si>
-  <si>
     <t>2|1.18</t>
   </si>
   <si>
@@ -231,6 +183,54 @@
   </si>
   <si>
     <t>下肢</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>完整度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷值</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>passive_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>active_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>List&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>upper_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>head_1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>heart_1</t>
+  </si>
+  <si>
+    <t>torso_1</t>
+  </si>
+  <si>
+    <t>lower_1</t>
+  </si>
+  <si>
+    <t>Component</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quality</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -275,7 +275,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,14 +298,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="dotted">
+        <color auto="1"/>
+      </left>
+      <right style="dotted">
+        <color auto="1"/>
+      </right>
+      <top style="dotted">
+        <color auto="1"/>
+      </top>
+      <bottom style="dotted">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -665,302 +681,310 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="10" max="10" width="8.88671875" style="1"/>
     <col min="12" max="12" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="J3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" t="s">
+      <c r="K3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="L4" s="1" t="s">
         <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B5" s="1">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="1">
         <v>0</v>
       </c>
-      <c r="C5" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5"/>
+      <c r="G5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" t="s">
+      <c r="L5" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I5" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="1">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="C6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>43</v>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6"/>
+      <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="1">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="C7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>46</v>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7"/>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="1">
+        <v>53</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" t="s">
-        <v>32</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>49</v>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8"/>
+      <c r="G8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" t="s">
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="B2:B114514">
+  <conditionalFormatting sqref="C2:C8 B9:B114514">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>2</formula>
     </cfRule>
@@ -972,10 +996,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C1048576" xr:uid="{FAFAB725-8D74-4D5C-835B-8E524F24AB63}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C9:C1048576 D4:D8" xr:uid="{FAFAB725-8D74-4D5C-835B-8E524F24AB63}">
       <formula1>"Head,Heart,Torso,UpperLimb,LowerLimb"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:B1048576" xr:uid="{2CFF7141-C40B-4C10-8EC4-E1765B61B75F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B1048576 C4:C8" xr:uid="{2CFF7141-C40B-4C10-8EC4-E1765B61B75F}">
       <formula1>"0,1,2"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Godo\Drafts\Franken\Xlsx\Source\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A464715-2E25-4922-9C5E-CD71E1E83777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE94A6-BAB2-4754-AF01-DD0D668D1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -95,10 +95,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Mp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Pt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -231,6 +227,10 @@
   </si>
   <si>
     <t>Quality</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cmp</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +681,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s">
         <v>7</v>
@@ -729,7 +729,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -740,16 +740,16 @@
         <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>9</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -796,190 +796,190 @@
         <v>16</v>
       </c>
       <c r="I3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>18</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E4" t="s">
-        <v>46</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5"/>
       <c r="G5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
       <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="J5" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>24</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="J6" t="s">
-        <v>24</v>
-      </c>
       <c r="K6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" t="s">
         <v>23</v>
       </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="J7" t="s">
-        <v>24</v>
-      </c>
       <c r="K7" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>23</v>
       </c>
-      <c r="H8" t="s">
-        <v>24</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="J8" t="s">
-        <v>24</v>
-      </c>
       <c r="K8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L8" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDAE94A6-BAB2-4754-AF01-DD0D668D1323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602A38B-158A-4B09-B0BD-F42DBAC95079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -232,6 +232,26 @@
   <si>
     <t>Cmp</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>行动点恢复</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>1|3</t>
+  </si>
+  <si>
+    <t>1|4</t>
+  </si>
+  <si>
+    <t>1|5</t>
   </si>
 </sst>
 </file>
@@ -275,7 +295,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -313,15 +333,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -678,26 +709,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="12.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
-    <col min="4" max="4" width="11.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.875" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="32" customWidth="1"/>
-    <col min="6" max="6" width="31.88671875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="31.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="1"/>
+    <col min="10" max="10" width="8.875" style="1"/>
+    <col min="11" max="11" width="9" style="1"/>
+    <col min="13" max="13" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -725,14 +757,17 @@
       <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -763,14 +798,17 @@
       <c r="J2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>9</v>
       </c>
+      <c r="M2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -801,14 +839,17 @@
       <c r="J3" t="s">
         <v>17</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
         <v>18</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -839,14 +880,17 @@
       <c r="J4" t="s">
         <v>23</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -873,14 +917,17 @@
       <c r="J5" t="s">
         <v>23</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" t="s">
         <v>30</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>50</v>
       </c>
@@ -907,14 +954,17 @@
       <c r="J6" t="s">
         <v>23</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -941,14 +991,17 @@
       <c r="J7" t="s">
         <v>23</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="L7" t="s">
         <v>34</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>52</v>
       </c>
@@ -975,10 +1028,13 @@
       <c r="J8" t="s">
         <v>23</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s">
         <v>36</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>37</v>
       </c>
     </row>

--- a/Xlsx/Source/ActorBodyPart.xlsx
+++ b/Xlsx/Source/ActorBodyPart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\Franken\Xlsx\Source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9602A38B-158A-4B09-B0BD-F42DBAC95079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9476313D-41C7-477F-A174-FCF309A20E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>行动点</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>防御力</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -95,10 +91,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Def</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -252,6 +244,14 @@
   </si>
   <si>
     <t>1|5</t>
+  </si>
+  <si>
+    <t>初始行动点</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pti</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -712,7 +712,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -724,8 +724,8 @@
     <col min="5" max="5" width="32" customWidth="1"/>
     <col min="6" max="6" width="31.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="8.875" style="1"/>
-    <col min="10" max="10" width="8.875" style="1"/>
-    <col min="11" max="11" width="9" style="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -752,290 +752,290 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="L1" t="s">
-        <v>8</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="M3" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" t="s">
-        <v>18</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" s="1">
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" t="s">
         <v>22</v>
       </c>
-      <c r="H4" t="s">
+      <c r="M4" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5"/>
       <c r="G5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C6" s="1">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6"/>
       <c r="G6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7"/>
       <c r="G7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8"/>
       <c r="G8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
